--- a/PhD/PhD Projects/Waterhemp/Bill Stangel_A92/2023/PRE/Fomesafen/Data Sheet_A92_Fomesafen PRE _outliers.xlsx
+++ b/PhD/PhD Projects/Waterhemp/Bill Stangel_A92/2023/PRE/Fomesafen/Data Sheet_A92_Fomesafen PRE _outliers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwprod-my.sharepoint.com/personal/deandradefal_wisc_edu/Documents/Documents/GitHub/FFaleco/PhD/PhD Projects/Waterhemp/Bill Stangel_A92/2023/PRE/Fomesafen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="195" documentId="8_{F858E3E2-80F1-4220-A715-D6579808C6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6578C390-CD99-407F-A9DF-A76BE1FBE9AD}"/>
+  <xr:revisionPtr revIDLastSave="201" documentId="8_{F858E3E2-80F1-4220-A715-D6579808C6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29D87358-6906-46D7-B816-62A8CB3D17D4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E4F63E78-1954-4528-8CDF-71AD70FA9EA6}"/>
   </bookViews>
@@ -512,7 +512,7 @@
   <dimension ref="A1:M146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,11 +525,11 @@
     <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" customWidth="1"/>
     <col min="10" max="10" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -3290,19 +3290,11 @@
         <v>3</v>
       </c>
       <c r="H63" s="2"/>
-      <c r="I63" s="2">
-        <v>0.70399999999999996</v>
-      </c>
+      <c r="I63" s="2"/>
       <c r="J63" s="4"/>
-      <c r="K63" s="4">
-        <v>1</v>
-      </c>
-      <c r="L63" s="4">
-        <v>0</v>
-      </c>
-      <c r="M63" s="4">
-        <v>0</v>
-      </c>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
@@ -3732,21 +3724,11 @@
         <v>1</v>
       </c>
       <c r="H73" s="2"/>
-      <c r="I73" s="2">
-        <v>0.19600000000000001</v>
-      </c>
+      <c r="I73" s="2"/>
       <c r="J73" s="4"/>
-      <c r="K73" s="4">
-        <f t="shared" si="5"/>
-        <v>0.55471698113207546</v>
-      </c>
-      <c r="L73" s="4">
-        <v>0</v>
-      </c>
-      <c r="M73" s="4">
-        <f t="shared" si="7"/>
-        <v>0.44528301886792454</v>
-      </c>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -6333,22 +6315,11 @@
         <v>1</v>
       </c>
       <c r="H132" s="2"/>
-      <c r="I132" s="2">
-        <v>0</v>
-      </c>
+      <c r="I132" s="2"/>
       <c r="J132" s="4"/>
-      <c r="K132" s="4">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L132" s="4">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="M132" s="4">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
+      <c r="K132" s="4"/>
+      <c r="L132" s="4"/>
+      <c r="M132" s="4"/>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
@@ -6418,22 +6389,11 @@
         <v>3</v>
       </c>
       <c r="H134" s="2"/>
-      <c r="I134" s="2">
-        <v>0</v>
-      </c>
+      <c r="I134" s="2"/>
       <c r="J134" s="4"/>
-      <c r="K134" s="4">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L134" s="4">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="M134" s="4">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
+      <c r="K134" s="4"/>
+      <c r="L134" s="4"/>
+      <c r="M134" s="4"/>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
